--- a/biology/Botanique/Tourisme_de_jardins/Tourisme_de_jardins.xlsx
+++ b/biology/Botanique/Tourisme_de_jardins/Tourisme_de_jardins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tourisme de jardins est un style de tourisme impliquant des visites ou des voyages dans un lieu significatif de l'histoire du jardinage et/ou de l'histoire et de la géographie du territoire concerné, pouvant être un jardin botanique ou un jardin public. Ce type de touristes a souvent l'habitude de voyager individuellement dans les pays avec lesquels il est familier, mais préfère souvent joindre des circuits de jardins organisés dans des pays dont il ne comprend pas la langue[réf. nécessaire].
 Les jardins les plus emblématiques et les plus connus peuvent devenir des motifs de déplacement à eux seuls, même si la plupart des jardins visités le sont car situés sur des circuits touristiques ou dans des villes qui sont dans leur globalité l'objet d'attrait du touriste (pour le cas des espaces verts urbains, notamment).
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel de Montaigne a été un des tout  premiers touristes de jardin à enregistrer ses impressions de jardins, vers 1580. John Evelyn a aussi enregistré ses visites aux jardins en France et l'Italie, aussi bien que Fynes Moryson[réf. nécessaire].
 </t>
@@ -543,7 +557,9 @@
           <t>Principaux jardins visités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins célèbres qui attirent de loin des touristes de jardin comprennent notamment :
 Les jardins de Sissinghurst Castle et Stourhead en Angleterre,
